--- a/public/PajakHotel.xlsx
+++ b/public/PajakHotel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meowulf\Documents\Git Sync\kkn_ppm\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB40971-CF84-4A0F-BD71-DA578572F55F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5007528-6819-4E38-BB41-4895A23DC8D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,42 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Meowulf</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AE1C1B63-7C68-4508-9F5A-5DF203EDCA92}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Meowulf:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="152">
   <si>
     <t>WISMA ROSLINA JAYA</t>
   </si>
@@ -499,6 +465,30 @@
   </si>
   <si>
     <t>Watang Soreang</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Kelurahan</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Pajak per bulan</t>
+  </si>
+  <si>
+    <t>Estimasi pajak per bulan</t>
+  </si>
+  <si>
+    <t>Informasi</t>
   </si>
 </sst>
 </file>
@@ -509,7 +499,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,19 +513,6 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -545,7 +522,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -568,24 +545,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -593,34 +557,21 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,1590 +851,1684 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D2" s="3">
         <v>-4.0133330000000003</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E2" s="3">
         <v>119.62222199999999</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F2" s="2">
+        <v>895358.33333333302</v>
+      </c>
+      <c r="G2" s="2">
         <v>1758000</v>
       </c>
-      <c r="G1" s="3">
-        <v>895358.33333333302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="3">
         <v>-4.0232060000000001</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="3">
         <v>119.624065</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="2">
+        <v>6472916.6666666698</v>
+      </c>
+      <c r="G3" s="2">
         <v>10050000</v>
       </c>
-      <c r="G2" s="3">
-        <v>6472916.6666666698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="3">
         <v>-4.035031</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="3">
         <v>119.626294</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
+        <v>3881666.6666666698</v>
+      </c>
+      <c r="G4" s="2">
         <v>17527500</v>
       </c>
-      <c r="G3" s="3">
-        <v>3881666.6666666698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="3">
         <v>-4.0096670000000003</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="3">
         <v>119.621639</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
+        <v>396083.33333333302</v>
+      </c>
+      <c r="G5" s="2">
         <v>516000</v>
       </c>
-      <c r="G4" s="3">
-        <v>396083.33333333302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="3">
         <v>-4.0074940000000003</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="3">
         <v>119.624925</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
+        <v>2122750</v>
+      </c>
+      <c r="G6" s="2">
         <v>14656125</v>
       </c>
-      <c r="G5" s="3">
-        <v>2122750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="3">
         <v>-4.014278</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="3">
         <v>119.62258300000001</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
+        <v>2115000</v>
+      </c>
+      <c r="G7" s="2">
         <v>4680000</v>
       </c>
-      <c r="G6" s="3">
-        <v>2115000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="3">
         <v>-4.0076850000000004</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="3">
         <v>119.625912</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
+        <v>11098725</v>
+      </c>
+      <c r="G8" s="2">
         <v>19090500</v>
       </c>
-      <c r="G7" s="3">
-        <v>11098725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="3">
         <v>-4.0057749999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="3">
         <v>119.636436</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
+        <v>3741125</v>
+      </c>
+      <c r="G9" s="2">
         <v>5985000</v>
       </c>
-      <c r="G8" s="3">
-        <v>3741125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="3">
         <v>-4.0074769999999997</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="3">
         <v>119.628731</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
+        <v>1125458.33333333</v>
+      </c>
+      <c r="G10" s="2">
         <v>1473750</v>
       </c>
-      <c r="G9" s="3">
-        <v>1125458.33333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="3">
         <v>-4.0138889999999998</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="3">
         <v>119.626167</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
+        <v>909841.66666666698</v>
+      </c>
+      <c r="G11" s="2">
         <v>1327500</v>
       </c>
-      <c r="G10" s="3">
-        <v>909841.66666666698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="3">
         <v>-4.0122482000000002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="3">
         <v>119.6278327</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
+        <v>2431666.6666666698</v>
+      </c>
+      <c r="G12" s="2">
         <v>6783000</v>
       </c>
-      <c r="G11" s="3">
-        <v>2431666.6666666698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="5">
         <v>-4.0517300000000001</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="5">
         <v>119.62515999999999</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="6">
+        <v>3754833.3333333302</v>
+      </c>
+      <c r="G13" s="6">
         <v>9976200</v>
       </c>
-      <c r="G12" s="6">
-        <v>3754833.3333333302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="3">
         <v>-4.0136887000000003</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="3">
         <v>119.6251893</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
+        <v>3031958.3333333302</v>
+      </c>
+      <c r="G14" s="2">
         <v>10380600</v>
       </c>
-      <c r="G13" s="3">
-        <v>3031958.3333333302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="3">
         <v>-4.0069689999999998</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="3">
         <v>119.62535099999999</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
+        <v>3136541.8333333302</v>
+      </c>
+      <c r="G15" s="2">
         <v>16695000</v>
       </c>
-      <c r="G14" s="3">
-        <v>3136541.8333333302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="3">
         <v>-4.0334459999999996</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="3">
         <v>119.63055</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
+        <v>6728750</v>
+      </c>
+      <c r="G16" s="2">
         <v>21735000</v>
       </c>
-      <c r="G15" s="3">
-        <v>6728750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="3">
         <v>-4.0180490000000004</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="3">
         <v>119.63261900000001</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
+        <v>2078508.33333333</v>
+      </c>
+      <c r="G17" s="2">
         <v>6510000</v>
       </c>
-      <c r="G16" s="3">
-        <v>2078508.33333333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="3">
         <v>-4.032394</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="3">
         <v>119.625586</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
+        <v>1741833.33333333</v>
+      </c>
+      <c r="G18" s="2">
         <v>7048800</v>
       </c>
-      <c r="G17" s="3">
-        <v>1741833.33333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="4">
-        <v>-4.0058610000000003</v>
-      </c>
-      <c r="E18" s="4">
-        <v>119.622833</v>
-      </c>
-      <c r="F18" s="2">
-        <v>12206250</v>
-      </c>
-      <c r="G18" s="3">
-        <v>7024770.8333333302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
+        <v>-4.0058610000000003</v>
+      </c>
+      <c r="E19" s="3">
+        <v>119.622833</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7024770.8333333302</v>
+      </c>
+      <c r="G19" s="2">
+        <v>12206250</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="3">
         <v>-4.0081670000000003</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="3">
         <v>119.625111</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
+        <v>8189179.1666666698</v>
+      </c>
+      <c r="G20" s="2">
         <v>16200000</v>
       </c>
-      <c r="G19" s="3">
-        <v>8189179.1666666698</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="3">
         <v>-4.0013899999999998</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="3">
         <v>119.63970500000001</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
+        <v>3293333.3333333302</v>
+      </c>
+      <c r="G21" s="2">
         <v>3570000</v>
       </c>
-      <c r="G20" s="3">
-        <v>3293333.3333333302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="3">
         <v>-4.0480999999999998</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="3">
         <v>119.62799</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
+        <v>2759358.3333333302</v>
+      </c>
+      <c r="G22" s="2">
         <v>3276000</v>
       </c>
-      <c r="G21" s="3">
-        <v>2759358.3333333302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="3">
         <v>-4.0056060000000002</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="3">
         <v>119.63616500000001</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
+        <v>2135190</v>
+      </c>
+      <c r="G23" s="2">
         <v>10458000</v>
       </c>
-      <c r="G22" s="3">
-        <v>2135190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D24" s="3">
         <v>-4.0067500000000003</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="3">
         <v>119.622556</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
+        <v>292250</v>
+      </c>
+      <c r="G24" s="2">
         <v>210000</v>
       </c>
-      <c r="G23" s="3">
-        <v>292250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="3">
         <v>-4.0430409999999997</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="3">
         <v>119.624247</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
+        <v>784166.66666666698</v>
+      </c>
+      <c r="G25" s="2">
         <v>3568800</v>
       </c>
-      <c r="G24" s="3">
-        <v>784166.66666666698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="4">
-        <v>-3.9923899999999999</v>
-      </c>
-      <c r="E25" s="4">
-        <v>119.65261099999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>582000</v>
-      </c>
-      <c r="G25" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
+        <v>-3.9923899999999999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>119.65261099999999</v>
+      </c>
+      <c r="F26" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>582000</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="3">
         <v>-3.98868</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="3">
         <v>119.652429</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
+        <v>138000</v>
+      </c>
+      <c r="G27" s="2">
         <v>408000</v>
       </c>
-      <c r="G26" s="3">
-        <v>138000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="3">
         <v>-4.0172999999999996</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="3">
         <v>119.6229</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G28" s="2">
         <v>574000</v>
       </c>
-      <c r="G27" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D29" s="3">
         <v>-3.9833799999999999</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="3">
         <v>119.65021</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
+        <v>128571.428571429</v>
+      </c>
+      <c r="G29" s="2">
         <v>300000</v>
       </c>
-      <c r="G28" s="3">
-        <v>128571.428571429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D30" s="3">
         <v>-3.9824220000000001</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="3">
         <v>119.651657</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="2">
+        <v>83333.333333333299</v>
+      </c>
+      <c r="G30" s="2">
         <v>1170000</v>
       </c>
-      <c r="G29" s="3">
-        <v>83333.333333333299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="3">
         <v>-4.0108708999999996</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="3">
         <v>119.62780189999999</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="2">
+        <v>366000</v>
+      </c>
+      <c r="G31" s="2">
         <v>889000</v>
       </c>
-      <c r="G30" s="3">
-        <v>366000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="4">
-        <v>-3.995098</v>
-      </c>
-      <c r="E31" s="4">
-        <v>119.652325</v>
-      </c>
-      <c r="F31" s="2">
-        <v>832000.00000000012</v>
-      </c>
-      <c r="G31" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
+        <v>-3.995098</v>
+      </c>
+      <c r="E32" s="3">
+        <v>119.652325</v>
+      </c>
+      <c r="F32" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>832000.00000000012</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="3">
         <v>-3.9868999999999999</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="3">
         <v>119.652559</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="2">
+        <v>216666.66666666701</v>
+      </c>
+      <c r="G33" s="2">
         <v>560000</v>
       </c>
-      <c r="G32" s="3">
-        <v>216666.66666666701</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D34" s="3">
         <v>-3.9908299999999999</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="3">
         <v>119.63781</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G34" s="2">
         <v>2750000</v>
       </c>
-      <c r="G33" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D35" s="3">
         <v>-4.0146546000000001</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="3">
         <v>119.6301105</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G35" s="2">
         <v>2072000</v>
       </c>
-      <c r="G34" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="3">
         <v>-3.9806240000000002</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="3">
         <v>119.654583</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="2">
+        <v>235000</v>
+      </c>
+      <c r="G36" s="2">
         <v>367000</v>
       </c>
-      <c r="G35" s="3">
-        <v>235000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D37" s="3">
         <v>-3.986291</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="3">
         <v>119.650794</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G37" s="2">
         <v>920000</v>
       </c>
-      <c r="G36" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D38" s="3">
         <v>-4.0050829999999999</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="3">
         <v>119.623306</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F38" s="2">
+        <v>842916.66666666698</v>
+      </c>
+      <c r="G38" s="2">
         <v>6264000</v>
       </c>
-      <c r="G37" s="3">
-        <v>842916.66666666698</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="3">
         <v>-4.0080213999999996</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="3">
         <v>119.629677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F39" s="2">
+        <v>1778766.66666667</v>
+      </c>
+      <c r="G39" s="2">
         <v>4359000</v>
       </c>
-      <c r="G38" s="3">
-        <v>1778766.66666667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="3">
         <v>-3.9922719999999998</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="3">
         <v>119.65258</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F40" s="2">
+        <v>951666.66666666698</v>
+      </c>
+      <c r="G40" s="2">
         <v>922500</v>
       </c>
-      <c r="G39" s="3">
-        <v>951666.66666666698</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="4">
-        <v>-4.0390519999999999</v>
-      </c>
-      <c r="E40" s="4">
-        <v>119.62906700000001</v>
-      </c>
-      <c r="F40" s="2">
-        <v>472500</v>
-      </c>
-      <c r="G40" s="3">
-        <v>103750</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
+        <v>-4.0390519999999999</v>
+      </c>
+      <c r="E41" s="3">
+        <v>119.62906700000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>103750</v>
+      </c>
+      <c r="G41" s="2">
+        <v>472500</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="3">
         <v>-4.0390499999999996</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="3">
         <v>119.62906700000001</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F42" s="2">
+        <v>70000</v>
+      </c>
+      <c r="G42" s="2">
         <v>672000</v>
       </c>
-      <c r="G41" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D43" s="3">
         <v>-3.9885199999999998</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="3">
         <v>119.6434</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G43" s="2">
         <v>108000</v>
       </c>
-      <c r="G42" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D44" s="3">
         <v>-4.0393499999999998</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="3">
         <v>119.628533</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F44" s="2">
+        <v>130000</v>
+      </c>
+      <c r="G44" s="2">
         <v>264000</v>
       </c>
-      <c r="G43" s="3">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="4">
-        <v>-3.9857589999999998</v>
-      </c>
-      <c r="E44" s="4">
-        <v>119.640049</v>
-      </c>
-      <c r="F44" s="2">
-        <v>132000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>72916.666666666701</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="4">
-        <v>-3.9834000000000001</v>
-      </c>
-      <c r="E45" s="4">
-        <v>119.65112000000001</v>
+      <c r="D45" s="3">
+        <v>-3.9857589999999998</v>
+      </c>
+      <c r="E45" s="3">
+        <v>119.640049</v>
       </c>
       <c r="F45" s="2">
-        <v>750000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72916.666666666701</v>
+      </c>
+      <c r="G45" s="2">
+        <v>132000</v>
+      </c>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>109</v>
+        <v>123</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="4">
-        <v>-3.9922369999999998</v>
-      </c>
-      <c r="E46" s="4">
-        <v>119.63775099999999</v>
+      <c r="D46" s="3">
+        <v>-3.9834000000000001</v>
+      </c>
+      <c r="E46" s="3">
+        <v>119.65112000000001</v>
       </c>
       <c r="F46" s="2">
-        <v>970000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130000</v>
+      </c>
+      <c r="G46" s="2">
+        <v>750000</v>
+      </c>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
+        <v>-3.9922369999999998</v>
+      </c>
+      <c r="E47" s="3">
+        <v>119.63775099999999</v>
+      </c>
+      <c r="F47" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G47" s="2">
+        <v>970000</v>
+      </c>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="3">
         <v>-3.98889</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="3">
         <v>119.63909</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F48" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G48" s="2">
         <v>766800</v>
       </c>
-      <c r="G47" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D49" s="3">
         <v>-4.0045929999999998</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="3">
         <v>119.638238</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F49" s="2">
+        <v>425000</v>
+      </c>
+      <c r="G49" s="2">
         <v>450000</v>
       </c>
-      <c r="G48" s="3">
-        <v>425000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B50" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="4">
-        <v>-3.989598</v>
-      </c>
-      <c r="E49" s="4">
-        <v>119.643845</v>
-      </c>
-      <c r="F49" s="2">
-        <v>724500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="4">
-        <v>-3.98332</v>
-      </c>
-      <c r="E50" s="4">
-        <v>119.65062</v>
+      <c r="D50" s="3">
+        <v>-3.989598</v>
+      </c>
+      <c r="E50" s="3">
+        <v>119.643845</v>
       </c>
       <c r="F50" s="2">
         <v>180000</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
+        <v>724500</v>
+      </c>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-3.98332</v>
+      </c>
+      <c r="E51" s="3">
+        <v>119.65062</v>
+      </c>
+      <c r="F51" s="2">
         <v>137500</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="G51" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B52" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="4">
-        <v>-3.985125</v>
-      </c>
-      <c r="E51" s="4">
-        <v>119.652686</v>
-      </c>
-      <c r="F51" s="2">
-        <v>210000</v>
-      </c>
-      <c r="G51" s="3">
-        <v>90833.333333333299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
+        <v>-3.985125</v>
+      </c>
+      <c r="E52" s="3">
+        <v>119.652686</v>
+      </c>
+      <c r="F52" s="2">
+        <v>90833.333333333299</v>
+      </c>
+      <c r="G52" s="2">
+        <v>210000</v>
+      </c>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="3">
         <v>-3.983304</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E53" s="3">
         <v>119.654938</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F53" s="2">
+        <v>283333.33333333302</v>
+      </c>
+      <c r="G53" s="2">
         <v>720000</v>
       </c>
-      <c r="G52" s="3">
-        <v>283333.33333333302</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D54" s="3">
         <v>-4.0138199999999999</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="3">
         <v>119.65402400000001</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F54" s="2">
+        <v>127500</v>
+      </c>
+      <c r="G54" s="2">
         <v>924000</v>
       </c>
-      <c r="G53" s="3">
-        <v>127500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B55" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="4">
-        <v>-3.9847130000000002</v>
-      </c>
-      <c r="E54" s="4">
-        <v>119.65200299999999</v>
-      </c>
-      <c r="F54" s="2">
-        <v>897000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
+        <v>-3.9847130000000002</v>
+      </c>
+      <c r="E55" s="3">
+        <v>119.65200299999999</v>
+      </c>
+      <c r="F55" s="2">
+        <v>80000</v>
+      </c>
+      <c r="G55" s="2">
+        <v>897000</v>
+      </c>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="3">
         <v>-3.98366</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="3">
         <v>119.65046</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F56" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G56" s="2">
         <v>320000</v>
       </c>
-      <c r="G55" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D57" s="3">
         <v>-4.023746</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E57" s="3">
         <v>119.62585199999999</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F57" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G57" s="2">
         <v>4920000</v>
       </c>
-      <c r="G56" s="3">
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="3">
+        <v>-4.0062160000000002</v>
+      </c>
+      <c r="E58" s="3">
+        <v>119.64023899999999</v>
+      </c>
+      <c r="F58" s="2">
+        <v>700000</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1327500</v>
+      </c>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="3">
+        <v>-4.0038960000000001</v>
+      </c>
+      <c r="E59" s="3">
+        <v>119.63687</v>
+      </c>
+      <c r="F59" s="2">
+        <v>151666.66666666701</v>
+      </c>
+      <c r="G59" s="2">
+        <v>255000</v>
+      </c>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-4.0139426</v>
+      </c>
+      <c r="E60" s="3">
+        <v>119.62683800000001</v>
+      </c>
+      <c r="F60" s="2">
+        <v>455833.33333333302</v>
+      </c>
+      <c r="G60" s="2">
+        <v>845000</v>
+      </c>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-4.0042340000000003</v>
+      </c>
+      <c r="E61" s="3">
+        <v>119.637838</v>
+      </c>
+      <c r="F61" s="2">
+        <v>240000</v>
+      </c>
+      <c r="G61" s="2">
+        <v>345000</v>
+      </c>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-4.0088330000000001</v>
+      </c>
+      <c r="E62" s="3">
+        <v>119.622694</v>
+      </c>
+      <c r="F62" s="2">
+        <v>311750</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2160000</v>
+      </c>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-4.0204459999999997</v>
+      </c>
+      <c r="E63" s="3">
+        <v>119.62452500000001</v>
+      </c>
+      <c r="F63" s="2">
+        <v>689583.33333333302</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1230000</v>
+      </c>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-3.9864199999999999</v>
+      </c>
+      <c r="E64" s="3">
+        <v>119.65107999999999</v>
+      </c>
+      <c r="F64" s="2">
+        <v>76000</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-4.0120829999999996</v>
+      </c>
+      <c r="E65" s="3">
+        <v>119.62397199999999</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1372583.33333333</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1557000</v>
+      </c>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-3.9897990000000001</v>
+      </c>
+      <c r="E66" s="3">
+        <v>119.637353</v>
+      </c>
+      <c r="F66" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" s="4">
-        <v>-4.0062160000000002</v>
-      </c>
-      <c r="E57" s="4">
-        <v>119.64023899999999</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1327500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="4">
-        <v>-4.0038960000000001</v>
-      </c>
-      <c r="E58" s="4">
-        <v>119.63687</v>
-      </c>
-      <c r="F58" s="2">
-        <v>255000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>151666.66666666701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="4">
-        <v>-4.0139426</v>
-      </c>
-      <c r="E59" s="4">
-        <v>119.62683800000001</v>
-      </c>
-      <c r="F59" s="2">
-        <v>845000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>455833.33333333302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="4">
-        <v>-4.0042340000000003</v>
-      </c>
-      <c r="E60" s="4">
-        <v>119.637838</v>
-      </c>
-      <c r="F60" s="2">
-        <v>345000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="4">
-        <v>-4.0088330000000001</v>
-      </c>
-      <c r="E61" s="4">
-        <v>119.622694</v>
-      </c>
-      <c r="F61" s="2">
-        <v>2160000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>311750</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="G66" s="2">
+        <v>602000</v>
+      </c>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="4">
-        <v>-4.0204459999999997</v>
-      </c>
-      <c r="E62" s="4">
-        <v>119.62452500000001</v>
-      </c>
-      <c r="F62" s="2">
-        <v>1230000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>689583.33333333302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="4">
-        <v>-3.9864199999999999</v>
-      </c>
-      <c r="E63" s="4">
-        <v>119.65107999999999</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1100000</v>
-      </c>
-      <c r="G63" s="3">
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="4">
-        <v>-4.0120829999999996</v>
-      </c>
-      <c r="E64" s="4">
-        <v>119.62397199999999</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1557000</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1372583.33333333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="4">
-        <v>-3.9897990000000001</v>
-      </c>
-      <c r="E65" s="4">
-        <v>119.637353</v>
-      </c>
-      <c r="F65" s="2">
-        <v>602000</v>
-      </c>
-      <c r="G65" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="4">
+      <c r="D67" s="3">
         <v>-4.0202770000000001</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="3">
         <v>119.631337</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F67" s="2">
+        <v>300000</v>
+      </c>
+      <c r="G67" s="2">
         <v>1320000</v>
       </c>
-      <c r="G66" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="4">
-        <v>-4.0133890000000001</v>
-      </c>
-      <c r="E67" s="4">
-        <v>119.621194</v>
-      </c>
-      <c r="F67" s="2">
-        <v>600000</v>
-      </c>
-      <c r="G67" s="3">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
+        <v>-4.0133890000000001</v>
+      </c>
+      <c r="E68" s="3">
+        <v>119.621194</v>
+      </c>
+      <c r="F68" s="2">
+        <v>240000</v>
+      </c>
+      <c r="G68" s="2">
+        <v>600000</v>
+      </c>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="3">
         <v>-4.0133910000000004</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="3">
         <v>119.621196</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F69" s="2">
+        <v>383333.33333333302</v>
+      </c>
+      <c r="G69" s="2">
         <v>525000</v>
       </c>
-      <c r="G68" s="3">
-        <v>383333.33333333302</v>
-      </c>
+      <c r="H69" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>